--- a/medicine/Enfance/Foyer_de_Cachan/Foyer_de_Cachan.xlsx
+++ b/medicine/Enfance/Foyer_de_Cachan/Foyer_de_Cachan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Foyer de Cachan, anciennement Foyer des PTT, est initialement un orphelinat français, situé à Cachan, dans le Val-de-Marne. Fondé en 1915 à l'initiative de Louis Pasquet, sous le ministère d'Étienne Clementel. L'établissement a été ouvert en 1923 pour accueillir en internat les orphelins de guerre des agents des Postes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Foyer de Cachan, anciennement Foyer des PTT, est initialement un orphelinat français, situé à Cachan, dans le Val-de-Marne. Fondé en 1915 à l'initiative de Louis Pasquet, sous le ministère d'Étienne Clementel. L'établissement a été ouvert en 1923 pour accueillir en internat les orphelins de guerre des agents des Postes.
 Aujourd'hui, le Foyer de Cachan accueille le Lycée des métiers Robert Keller qui compte environ 450 lycéens (dont 110 internes) dans quatre filières professionnelles allant de la 3e Prépa Pro au Bac Pro.
 </t>
         </is>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Site sur 5 hectares en Île-de-France ayant appartenu à Madame de Chateaubriand[2], à Cachan. Le Foyer de Cachan ressemble à un grand manoir de type château, a été au cœur d'un parc, un stade, avec courts de tennis et un gymnase. Un foyer féminin avait été ajouté début des années 1950 puis transformé en 2004 en foyer d'étudiants. Une piscine était également présente, mais elle a été comblée pour être transformée en atelier de préparation aux métiers de la métallerie, l'un des derniers de la région Île-de-France. Le Foyer de Cachan possède un amphithéâtre et deux salles de réceptions ouvertes à des accueils extérieurs.
-La construction date de 1915. Elle a été créée par une association loi de 1901, reconnue d’utilité publique depuis 1922, se composant d’un lycée professionnel privé sous contrat avec l’État, le lycée professionnel Robert Keller[3] et son internat. Son ambition est d’être une institution d’enseignement de référence pour des jeunes en difficulté. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Site sur 5 hectares en Île-de-France ayant appartenu à Madame de Chateaubriand, à Cachan. Le Foyer de Cachan ressemble à un grand manoir de type château, a été au cœur d'un parc, un stade, avec courts de tennis et un gymnase. Un foyer féminin avait été ajouté début des années 1950 puis transformé en 2004 en foyer d'étudiants. Une piscine était également présente, mais elle a été comblée pour être transformée en atelier de préparation aux métiers de la métallerie, l'un des derniers de la région Île-de-France. Le Foyer de Cachan possède un amphithéâtre et deux salles de réceptions ouvertes à des accueils extérieurs.
+La construction date de 1915. Elle a été créée par une association loi de 1901, reconnue d’utilité publique depuis 1922, se composant d’un lycée professionnel privé sous contrat avec l’État, le lycée professionnel Robert Keller et son internat. Son ambition est d’être une institution d’enseignement de référence pour des jeunes en difficulté. 
 Désormais situé dans un parc boisé et sécurisé de cinq hectares, à proximité de Paris, le Foyer de Cachan propose aux élèves qu’il accueille, des conditions d’études appréciables, en internat, en demi-pension ou en externat.
 Le Foyer de Cachan, avec le lycée professionnel Robert Keller, propose à ses élèves le choix parmi quatre filières allant de la 3e prépa-Pro jusqu’au bac professionnel :
 la sécurité (BAC PRO MS - Métiers de la sécurité et CAP AS - Agent de Sécurité) ;
@@ -551,7 +565,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un grand nombre d’actions ont été réalisées pour soutenir le Foyer des PTT. Des cartes postales ont été publiées et vendues au profit de l’établissement. Le nom d’Œuvre de protection des orphelins de personnel des P.T.T a été souvent utilisé. Des appels au soutien ont été lancés sous le nom d’Œuvre de protection des orphelins de guerre du personnel des P.T.T.    
 </t>
@@ -582,7 +598,9 @@
           <t>Ressources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Foyer de Cachan est membre du Don en Confiance, permettant de contrôler l'usage des dons et legs reçus par l'Association.
 Pendant des décennies, l'association a tiré sa dépendance des P &amp; T par la composition de ses membres, cadres dirigeants de La Poste et de France Telecom. Elle dépendait financièrement :
@@ -621,11 +639,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>En 1914, la Première Guerre mondiale débute. Plus de 15 000 agents et sous-agents des administrations postales ont été mobilisés. Certains sont employés, comme « vaguemestres », c’est-à-dire qu’ils sont chargés de la distribution du courrier sur le front pendant que les autres sont envoyés au combat. Beaucoup n’en reviendront pas : au terme de ce conflit, 1,4 million de soldats français ont perdu la vie et laissent plus d’1 million d’orphelins.
-Jusque-là, l'Orphelinat des sous-agents et ouvriers de la poste et des télégraphes, créée en 1888, ne disposait pas d’un orphelinat mais allouait mensuellement 20 francs ou plaçait les orphelins dans un établissement. Devant la catastrophe qui s’annonçait, cette association décida de bâtir un lieu d’accueil pour les orphelins de guerre, avec une autre association de postiers, le « Soutien fraternel ». Ensemble, ils fondèrent en 1915 l’Œuvre de protection des orphelins de guerre du personnel des P.T.T.[4]
-En 1922, le Foyer de Cachan est déclaré d’utilité publique et accueille dès l’année suivante[5], une centaine de garçons dans une grande maison spécialement construite sur un terrain de 5 hectares donné par Madame de Chateaubriand,  situé sur la commune de Cachan.
+Jusque-là, l'Orphelinat des sous-agents et ouvriers de la poste et des télégraphes, créée en 1888, ne disposait pas d’un orphelinat mais allouait mensuellement 20 francs ou plaçait les orphelins dans un établissement. Devant la catastrophe qui s’annonçait, cette association décida de bâtir un lieu d’accueil pour les orphelins de guerre, avec une autre association de postiers, le « Soutien fraternel ». Ensemble, ils fondèrent en 1915 l’Œuvre de protection des orphelins de guerre du personnel des P.T.T.
+En 1922, le Foyer de Cachan est déclaré d’utilité publique et accueille dès l’année suivante, une centaine de garçons dans une grande maison spécialement construite sur un terrain de 5 hectares donné par Madame de Chateaubriand,  situé sur la commune de Cachan.
 Depuis, le Foyer de Cachan a évolué en s’adaptant aux grandes transformations des XXe et XXIe siècles :
 1956, ouverture du Foyer pour jeunes filles ;
 1964, signature du contrat d’association avec l’Éducation nationale ;
@@ -662,7 +682,9 @@
           <t>Scolarité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Lycée professionnel Robert Keller, lycée du Foyer de Cachan, propose aujourd'hui quatre filières professionnelles :
 Commerce ;
